--- a/projects/energy/docs/web_app_layout_1.xlsx
+++ b/projects/energy/docs/web_app_layout_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\EnvironmentEnergy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bwalker\Githubprojects\projects\energy\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$107</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="117">
   <si>
     <t>WebApp</t>
   </si>
@@ -327,6 +330,54 @@
   </si>
   <si>
     <t>Not Visible Attributes</t>
+  </si>
+  <si>
+    <t>Options for Filter widgets:</t>
+  </si>
+  <si>
+    <t>Filter Lower Left</t>
+  </si>
+  <si>
+    <t>Start in Simple View</t>
+  </si>
+  <si>
+    <t>Append any expression to existing map filter</t>
+  </si>
+  <si>
+    <t>Append all expressions to existing map filter</t>
+  </si>
+  <si>
+    <t>Persist After Widget is Closed</t>
+  </si>
+  <si>
+    <t>Hide Widget Options</t>
+  </si>
+  <si>
+    <t>Zoom to</t>
+  </si>
+  <si>
+    <t>Filter Upper Right</t>
+  </si>
+  <si>
+    <t>Group filters by layer</t>
+  </si>
+  <si>
+    <t>Zoom to the layer when the filter is applied</t>
+  </si>
+  <si>
+    <t>Allow to create custom filters</t>
+  </si>
+  <si>
+    <t>Remove the preset layer filter from the map.</t>
+  </si>
+  <si>
+    <t>Apply this filter when the widget is opened</t>
+  </si>
+  <si>
+    <t>Collapse the filter expressions (if any) when the widget is opened</t>
+  </si>
+  <si>
+    <t>Can be filtered on Property Type</t>
   </si>
 </sst>
 </file>
@@ -700,23 +751,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="J107" sqref="A1:J107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.5546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" style="1" customWidth="1"/>
     <col min="10" max="11" width="8.88671875" style="1"/>
     <col min="12" max="12" width="11.33203125" style="1" customWidth="1"/>
     <col min="13" max="17" width="8.88671875" style="1"/>
@@ -1015,12 +1066,18 @@
         <v>35</v>
       </c>
       <c r="G41" s="4"/>
+      <c r="H41" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="I41" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75">
       <c r="G42" s="4"/>
+      <c r="H42" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="I42" s="1" t="s">
         <v>42</v>
       </c>
@@ -1035,6 +1092,11 @@
         <v>44</v>
       </c>
     </row>
+    <row r="46" spans="1:9">
+      <c r="I46" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
         <v>61</v>
@@ -1217,14 +1279,87 @@
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="B89" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="B90" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="B91" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="B92" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="B93" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="B94" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="B96" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
